--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\nominas2022\resources\original 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 21-22\Sistemas de Información II\Práctica 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC5109-EC2E-4D1C-BFA7-9AFB2815AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF13E0-3613-4B58-B3FC-0EB3EC2D078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,66 +1727,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>23.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>6.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,156 +1997,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>1850</v>
+        <v>3750</v>
       </c>
       <c r="C2">
-        <v>12500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="C3">
-        <v>13000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="C4">
-        <v>14000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="C5">
-        <v>19000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="C6">
-        <v>26000</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C7">
-        <v>17000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>3500</v>
+        <v>1250</v>
       </c>
       <c r="C8">
-        <v>21000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>10500</v>
+        <v>5800</v>
       </c>
       <c r="C9">
-        <v>31000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>1950</v>
       </c>
       <c r="C10">
-        <v>12000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="C11">
-        <v>14500</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="C12">
-        <v>20000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>1100</v>
+        <v>3750</v>
       </c>
       <c r="C13">
-        <v>16000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>4900</v>
       </c>
       <c r="C14">
-        <v>11000</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="C15">
-        <v>31000</v>
+        <v>17500</v>
       </c>
     </row>
   </sheetData>
@@ -2158,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2180,7 @@
         <v>12000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>13000</v>
       </c>
       <c r="B3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>14000</v>
       </c>
       <c r="B4">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>15000</v>
       </c>
       <c r="B5">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>16000</v>
       </c>
       <c r="B6">
-        <v>9.5500000000000007</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>17000</v>
       </c>
       <c r="B7">
-        <v>10.35</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>18000</v>
       </c>
       <c r="B8">
-        <v>11.15</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>19000</v>
       </c>
       <c r="B9">
-        <v>11.75</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>20000</v>
       </c>
       <c r="B10">
-        <v>12.15</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>21000</v>
       </c>
       <c r="B11">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>22000</v>
       </c>
       <c r="B12">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>23000</v>
       </c>
       <c r="B13">
-        <v>13.65</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>24000</v>
       </c>
       <c r="B14">
-        <v>14.15</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>25000</v>
       </c>
       <c r="B15">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>26000</v>
       </c>
       <c r="B16">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>27000</v>
       </c>
       <c r="B17">
-        <v>15.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>28000</v>
       </c>
       <c r="B18">
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>29000</v>
       </c>
       <c r="B19">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>30000</v>
       </c>
       <c r="B20">
-        <v>17.25</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>31000</v>
       </c>
       <c r="B21">
-        <v>17.45</v>
+        <v>17.649999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>32000</v>
       </c>
       <c r="B22">
-        <v>17.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>33000</v>
       </c>
       <c r="B23">
-        <v>18.149999999999999</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>34000</v>
       </c>
       <c r="B24">
-        <v>18.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>35000</v>
       </c>
       <c r="B25">
-        <v>18.7</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>36000</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>37000</v>
       </c>
       <c r="B27">
-        <v>19.25</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>38000</v>
       </c>
       <c r="B28">
-        <v>19.62</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>39000</v>
       </c>
       <c r="B29">
-        <v>19.96</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>40000</v>
       </c>
       <c r="B30">
-        <v>20.18</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>41000</v>
       </c>
       <c r="B31">
-        <v>20.52</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>43000</v>
       </c>
       <c r="B33">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>44000</v>
       </c>
       <c r="B34">
-        <v>21.45</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>45000</v>
       </c>
       <c r="B35">
-        <v>21.75</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>46000</v>
       </c>
       <c r="B36">
-        <v>22.02</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>47000</v>
       </c>
       <c r="B37">
-        <v>22.32</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 21-22\Sistemas de Información II\Práctica 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\nominas2022\resources\original 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF13E0-3613-4B58-B3FC-0EB3EC2D078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC5109-EC2E-4D1C-BFA7-9AFB2815AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,66 +1727,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B1">
-        <v>4.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>1.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>23.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,156 +1997,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>3750</v>
+        <v>1850</v>
       </c>
       <c r="C2">
-        <v>21500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="C3">
-        <v>31500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C4">
-        <v>12500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="C5">
-        <v>15000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="C6">
-        <v>20500</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C7">
-        <v>16500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1250</v>
+        <v>3500</v>
       </c>
       <c r="C8">
-        <v>11500</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>5800</v>
+        <v>10500</v>
       </c>
       <c r="C9">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>1950</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>13000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>1800</v>
+        <v>1350</v>
       </c>
       <c r="C11">
-        <v>13500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="C12">
-        <v>14500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>3750</v>
+        <v>1100</v>
       </c>
       <c r="C13">
-        <v>19500</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>4900</v>
+        <v>1100</v>
       </c>
       <c r="C14">
-        <v>26500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="C15">
-        <v>17500</v>
+        <v>31000</v>
       </c>
     </row>
   </sheetData>
@@ -2158,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2180,7 @@
         <v>12000</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>13000</v>
       </c>
       <c r="B3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>14000</v>
       </c>
       <c r="B4">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>15000</v>
       </c>
       <c r="B5">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>16000</v>
       </c>
       <c r="B6">
-        <v>9.75</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>17000</v>
       </c>
       <c r="B7">
-        <v>10.55</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>18000</v>
       </c>
       <c r="B8">
-        <v>11.25</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>19000</v>
       </c>
       <c r="B9">
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>20000</v>
       </c>
       <c r="B10">
-        <v>12.35</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>21000</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>22000</v>
       </c>
       <c r="B12">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>23000</v>
       </c>
       <c r="B13">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>24000</v>
       </c>
       <c r="B14">
-        <v>14.25</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>25000</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>26000</v>
       </c>
       <c r="B16">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>27000</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>28000</v>
       </c>
       <c r="B18">
-        <v>16.399999999999999</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>29000</v>
       </c>
       <c r="B19">
-        <v>16.899999999999999</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>30000</v>
       </c>
       <c r="B20">
-        <v>17.45</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>31000</v>
       </c>
       <c r="B21">
-        <v>17.649999999999999</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>32000</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>33000</v>
       </c>
       <c r="B23">
-        <v>18.350000000000001</v>
+        <v>18.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>34000</v>
       </c>
       <c r="B24">
-        <v>18.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>35000</v>
       </c>
       <c r="B25">
-        <v>18.899999999999999</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>36000</v>
       </c>
       <c r="B26">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>37000</v>
       </c>
       <c r="B27">
-        <v>19.45</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>38000</v>
       </c>
       <c r="B28">
-        <v>19.850000000000001</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>39000</v>
       </c>
       <c r="B29">
-        <v>20.100000000000001</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>40000</v>
       </c>
       <c r="B30">
-        <v>20.3</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>41000</v>
       </c>
       <c r="B31">
-        <v>20.7</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>43000</v>
       </c>
       <c r="B33">
-        <v>21.3</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>44000</v>
       </c>
       <c r="B34">
-        <v>21.65</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>45000</v>
       </c>
       <c r="B35">
-        <v>21.95</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>46000</v>
       </c>
       <c r="B36">
-        <v>22.2</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>47000</v>
       </c>
       <c r="B37">
-        <v>22.4</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\nominas2022\resources\original 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 21-22\Sistemas de Información II\Práctica 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC5109-EC2E-4D1C-BFA7-9AFB2815AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032687A-6E43-42C0-99D7-704E939C2843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="8" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="482">
   <si>
     <t>Nombre</t>
   </si>
@@ -89,6 +82,9 @@
     <t>Fernandez</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Martinez</t>
   </si>
   <si>
@@ -98,15 +94,27 @@
     <t>NO</t>
   </si>
   <si>
+    <t>Ana Isabel</t>
+  </si>
+  <si>
     <t>Alaiz</t>
   </si>
   <si>
     <t>Miguel</t>
   </si>
   <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
     <t>Marta</t>
   </si>
   <si>
+    <t>Francisco</t>
+  </si>
+  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -125,6 +133,9 @@
     <t>García</t>
   </si>
   <si>
+    <t>Llamazares</t>
+  </si>
+  <si>
     <t>Ramos</t>
   </si>
   <si>
@@ -143,6 +154,9 @@
     <t>Robles</t>
   </si>
   <si>
+    <t>Bueno</t>
+  </si>
+  <si>
     <t>09784112G</t>
   </si>
   <si>
@@ -182,6 +196,9 @@
     <t>Alencar</t>
   </si>
   <si>
+    <t>Alves</t>
+  </si>
+  <si>
     <t>Lidiane</t>
   </si>
   <si>
@@ -197,12 +214,24 @@
     <t>Saaida</t>
   </si>
   <si>
+    <t>Bouzidi</t>
+  </si>
+  <si>
     <t>X5106131Q</t>
   </si>
   <si>
     <t>Khadouj</t>
   </si>
   <si>
+    <t>Elammary</t>
+  </si>
+  <si>
+    <t>Souad</t>
+  </si>
+  <si>
+    <t>Elbada</t>
+  </si>
+  <si>
     <t>01234567L</t>
   </si>
   <si>
@@ -272,12 +301,21 @@
     <t>Armando</t>
   </si>
   <si>
+    <t>Bienvenido</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
     <t>Gracia</t>
   </si>
   <si>
     <t>Puerto</t>
   </si>
   <si>
+    <t>Lorena</t>
+  </si>
+  <si>
     <t>Pasado</t>
   </si>
   <si>
@@ -326,6 +364,9 @@
     <t>Sánchez</t>
   </si>
   <si>
+    <t>Asensio</t>
+  </si>
+  <si>
     <t>09548206D</t>
   </si>
   <si>
@@ -338,9 +379,15 @@
     <t>09671968P</t>
   </si>
   <si>
+    <t>Andrés</t>
+  </si>
+  <si>
     <t>Getino</t>
   </si>
   <si>
+    <t>Serrano</t>
+  </si>
+  <si>
     <t>09724050H</t>
   </si>
   <si>
@@ -350,6 +397,9 @@
     <t>Chamorro</t>
   </si>
   <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
     <t>09634700T</t>
   </si>
   <si>
@@ -368,9 +418,18 @@
     <t>Bonifacio</t>
   </si>
   <si>
+    <t>Alcoba</t>
+  </si>
+  <si>
     <t>09548247G</t>
   </si>
   <si>
+    <t>Braulio</t>
+  </si>
+  <si>
+    <t>Feliz</t>
+  </si>
+  <si>
     <t>Pisabarro</t>
   </si>
   <si>
@@ -389,6 +448,9 @@
     <t>71404623L</t>
   </si>
   <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t>Pardo</t>
   </si>
   <si>
@@ -410,6 +472,9 @@
     <t>Gutierrez</t>
   </si>
   <si>
+    <t>Casimiro</t>
+  </si>
+  <si>
     <t>González</t>
   </si>
   <si>
@@ -431,9 +496,15 @@
     <t>Salas</t>
   </si>
   <si>
+    <t>Benavides</t>
+  </si>
+  <si>
     <t>09719898Y</t>
   </si>
   <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t>Herreras</t>
   </si>
   <si>
@@ -455,6 +526,9 @@
     <t>09611099C</t>
   </si>
   <si>
+    <t>Consuelo</t>
+  </si>
+  <si>
     <t>09632873J</t>
   </si>
   <si>
@@ -509,15 +583,27 @@
     <t>Demetrio</t>
   </si>
   <si>
+    <t>Aller</t>
+  </si>
+  <si>
+    <t>Castrillo</t>
+  </si>
+  <si>
     <t>09611071S</t>
   </si>
   <si>
     <t>Diana</t>
   </si>
   <si>
+    <t>Fidalgo</t>
+  </si>
+  <si>
     <t>71393411P</t>
   </si>
   <si>
+    <t>Elena</t>
+  </si>
+  <si>
     <t>71404625K</t>
   </si>
   <si>
@@ -536,6 +622,12 @@
     <t>Dolores</t>
   </si>
   <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
     <t>Fresco</t>
   </si>
   <si>
@@ -551,6 +643,9 @@
     <t>Emiliano</t>
   </si>
   <si>
+    <t>Puente</t>
+  </si>
+  <si>
     <t>09738010V</t>
   </si>
   <si>
@@ -569,12 +664,21 @@
     <t>Cascallana</t>
   </si>
   <si>
+    <t>Jaular</t>
+  </si>
+  <si>
     <t>02614035Q</t>
   </si>
   <si>
+    <t>Felix</t>
+  </si>
+  <si>
     <t>Gomara</t>
   </si>
   <si>
+    <t>Iban</t>
+  </si>
+  <si>
     <t>09689676Y</t>
   </si>
   <si>
@@ -584,15 +688,24 @@
     <t>Generoso</t>
   </si>
   <si>
+    <t>Soto</t>
+  </si>
+  <si>
     <t>71393354C</t>
   </si>
   <si>
     <t>Herminia</t>
   </si>
   <si>
+    <t>Santín</t>
+  </si>
+  <si>
     <t>10405904Z</t>
   </si>
   <si>
+    <t>Héctor</t>
+  </si>
+  <si>
     <t>Melcón</t>
   </si>
   <si>
@@ -614,9 +727,15 @@
     <t>Germán</t>
   </si>
   <si>
+    <t>Bariales</t>
+  </si>
+  <si>
     <t>09314602Q</t>
   </si>
   <si>
+    <t>Inés</t>
+  </si>
+  <si>
     <t>Riverto</t>
   </si>
   <si>
@@ -629,6 +748,9 @@
     <t>Hugo</t>
   </si>
   <si>
+    <t>Echevarria</t>
+  </si>
+  <si>
     <t>Almanzar</t>
   </si>
   <si>
@@ -647,15 +769,27 @@
     <t>10940987W</t>
   </si>
   <si>
+    <t>Julio Ernesto</t>
+  </si>
+  <si>
     <t>71393396Q</t>
   </si>
   <si>
+    <t>Justina</t>
+  </si>
+  <si>
     <t>10575307E</t>
   </si>
   <si>
+    <t>Julio Pedro</t>
+  </si>
+  <si>
     <t>09632539R</t>
   </si>
   <si>
+    <t>Víctor</t>
+  </si>
+  <si>
     <t>Pérez</t>
   </si>
   <si>
@@ -668,12 +802,18 @@
     <t>Sonia</t>
   </si>
   <si>
+    <t>Sevillano</t>
+  </si>
+  <si>
     <t>Gomez</t>
   </si>
   <si>
     <t>Soledad</t>
   </si>
   <si>
+    <t>Arias</t>
+  </si>
+  <si>
     <t>09786363R</t>
   </si>
   <si>
@@ -695,6 +835,12 @@
     <t>09611066X</t>
   </si>
   <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Galán</t>
+  </si>
+  <si>
     <t>Amo</t>
   </si>
   <si>
@@ -707,6 +853,9 @@
     <t>09548287K</t>
   </si>
   <si>
+    <t>Rosario</t>
+  </si>
+  <si>
     <t>Laiz</t>
   </si>
   <si>
@@ -725,6 +874,9 @@
     <t>09481741Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Ramón </t>
+  </si>
+  <si>
     <t>00538394X</t>
   </si>
   <si>
@@ -746,6 +898,9 @@
     <t>09548215H</t>
   </si>
   <si>
+    <t>Oscar</t>
+  </si>
+  <si>
     <t>Márquez</t>
   </si>
   <si>
@@ -758,6 +913,9 @@
     <t>71597570L</t>
   </si>
   <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
     <t>Manzanares</t>
   </si>
   <si>
@@ -767,6 +925,9 @@
     <t>09570258G</t>
   </si>
   <si>
+    <t>Nieves</t>
+  </si>
+  <si>
     <t>Morán</t>
   </si>
   <si>
@@ -794,6 +955,9 @@
     <t>Mauro</t>
   </si>
   <si>
+    <t>Belerda</t>
+  </si>
+  <si>
     <t>Aparicio</t>
   </si>
   <si>
@@ -830,15 +994,27 @@
     <t>Adolfo</t>
   </si>
   <si>
+    <t>Bayon</t>
+  </si>
+  <si>
     <t>12160221Y</t>
   </si>
   <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Carpintero</t>
+  </si>
+  <si>
     <t>Cepin</t>
   </si>
   <si>
     <t>12649208J</t>
   </si>
   <si>
+    <t>Jesús Manuel</t>
+  </si>
+  <si>
     <t>Centeno</t>
   </si>
   <si>
@@ -851,6 +1027,9 @@
     <t>Cerro</t>
   </si>
   <si>
+    <t>Ponga</t>
+  </si>
+  <si>
     <t>12684218V</t>
   </si>
   <si>
@@ -890,9 +1069,18 @@
     <t>Lombás</t>
   </si>
   <si>
+    <t>Almarza</t>
+  </si>
+  <si>
     <t>71404629W</t>
   </si>
   <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Río</t>
+  </si>
+  <si>
     <t>09570262P</t>
   </si>
   <si>
@@ -1287,21 +1475,6 @@
   </si>
   <si>
     <t>31645124473461205164</t>
-  </si>
-  <si>
-    <t>Gerardo</t>
-  </si>
-  <si>
-    <t>Moncada</t>
-  </si>
-  <si>
-    <t>Genaro</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Giovani</t>
   </si>
 </sst>
 </file>
@@ -1713,80 +1886,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C327A6EA-08AE-4072-AF42-DE362A463DBF}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>23.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B4">
-        <v>6.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1795,371 +1974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93029E8-D8FA-49B2-8DD9-242C3E302510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1850</v>
-      </c>
-      <c r="C2">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1500</v>
-      </c>
-      <c r="C3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1800</v>
-      </c>
-      <c r="C4">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>3500</v>
-      </c>
-      <c r="C5">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>4800</v>
-      </c>
-      <c r="C6">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2500</v>
-      </c>
-      <c r="C7">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>3500</v>
-      </c>
-      <c r="C8">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9">
-        <v>10500</v>
-      </c>
-      <c r="C9">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>1350</v>
-      </c>
-      <c r="C11">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>1400</v>
-      </c>
-      <c r="C12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13">
-        <v>1100</v>
-      </c>
-      <c r="C13">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
-        <v>1100</v>
-      </c>
-      <c r="C14">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>5500</v>
-      </c>
-      <c r="C15">
-        <v>31000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
-  <dimension ref="A1:B50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,6 +1988,353 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAFE837-6407-4076-A182-AF2C37B6D9C5}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3750</v>
+      </c>
+      <c r="C2">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>4500</v>
+      </c>
+      <c r="C3">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+      <c r="C4">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>1600</v>
+      </c>
+      <c r="C5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>1250</v>
+      </c>
+      <c r="C8">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>5800</v>
+      </c>
+      <c r="C9">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1950</v>
+      </c>
+      <c r="C10">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1800</v>
+      </c>
+      <c r="C11">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1900</v>
+      </c>
+      <c r="C12">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>3750</v>
+      </c>
+      <c r="C13">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>4900</v>
+      </c>
+      <c r="C14">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2750</v>
+      </c>
+      <c r="C15">
+        <v>17500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AA8EA7-2192-42AA-BADB-246B6183E641}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
@@ -2180,7 +2346,7 @@
         <v>12000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2354,7 @@
         <v>13000</v>
       </c>
       <c r="B3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2362,7 @@
         <v>14000</v>
       </c>
       <c r="B4">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2370,7 @@
         <v>15000</v>
       </c>
       <c r="B5">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2378,7 @@
         <v>16000</v>
       </c>
       <c r="B6">
-        <v>9.5500000000000007</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2386,7 @@
         <v>17000</v>
       </c>
       <c r="B7">
-        <v>10.35</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2394,7 @@
         <v>18000</v>
       </c>
       <c r="B8">
-        <v>11.15</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2402,7 @@
         <v>19000</v>
       </c>
       <c r="B9">
-        <v>11.75</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2410,7 @@
         <v>20000</v>
       </c>
       <c r="B10">
-        <v>12.15</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2418,7 @@
         <v>21000</v>
       </c>
       <c r="B11">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2426,7 @@
         <v>22000</v>
       </c>
       <c r="B12">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2434,7 @@
         <v>23000</v>
       </c>
       <c r="B13">
-        <v>13.65</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2442,7 @@
         <v>24000</v>
       </c>
       <c r="B14">
-        <v>14.15</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2450,7 @@
         <v>25000</v>
       </c>
       <c r="B15">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2458,7 @@
         <v>26000</v>
       </c>
       <c r="B16">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2466,7 @@
         <v>27000</v>
       </c>
       <c r="B17">
-        <v>15.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2474,7 @@
         <v>28000</v>
       </c>
       <c r="B18">
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2482,7 @@
         <v>29000</v>
       </c>
       <c r="B19">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2490,7 @@
         <v>30000</v>
       </c>
       <c r="B20">
-        <v>17.25</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2498,7 @@
         <v>31000</v>
       </c>
       <c r="B21">
-        <v>17.45</v>
+        <v>17.649999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2506,7 @@
         <v>32000</v>
       </c>
       <c r="B22">
-        <v>17.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2514,7 @@
         <v>33000</v>
       </c>
       <c r="B23">
-        <v>18.149999999999999</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2522,7 @@
         <v>34000</v>
       </c>
       <c r="B24">
-        <v>18.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2530,7 @@
         <v>35000</v>
       </c>
       <c r="B25">
-        <v>18.7</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2538,7 @@
         <v>36000</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2546,7 @@
         <v>37000</v>
       </c>
       <c r="B27">
-        <v>19.25</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2554,7 @@
         <v>38000</v>
       </c>
       <c r="B28">
-        <v>19.62</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2562,7 @@
         <v>39000</v>
       </c>
       <c r="B29">
-        <v>19.96</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2570,7 @@
         <v>40000</v>
       </c>
       <c r="B30">
-        <v>20.18</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2578,7 @@
         <v>41000</v>
       </c>
       <c r="B31">
-        <v>20.52</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2594,7 @@
         <v>43000</v>
       </c>
       <c r="B33">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2602,7 @@
         <v>44000</v>
       </c>
       <c r="B34">
-        <v>21.45</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2610,7 @@
         <v>45000</v>
       </c>
       <c r="B35">
-        <v>21.75</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2618,7 @@
         <v>46000</v>
       </c>
       <c r="B36">
-        <v>22.02</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2626,7 @@
         <v>47000</v>
       </c>
       <c r="B37">
-        <v>22.32</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,17 +2739,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
-  <dimension ref="A1:M136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.28515625" customWidth="1"/>
     <col min="12" max="12" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
@@ -2591,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2608,3550 +2777,3562 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
+      <c r="G1" t="s">
+        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="G2" s="1">
-        <v>42461</v>
+        <v>43101</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="G3" s="1">
-        <v>42461</v>
+        <v>43101</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1">
-        <v>42979</v>
+        <v>43617</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1">
-        <v>42979</v>
+        <v>43617</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1">
-        <v>43221</v>
+        <v>43862</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="K6" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43222</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="G7" s="1"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="G8" s="1">
-        <v>40787</v>
+        <v>41426</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>411</v>
+        <v>476</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="1">
+        <v>41426</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K9" t="s">
         <v>82</v>
-      </c>
-      <c r="G9" s="1">
-        <v>40787</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1">
-        <v>40787</v>
+        <v>41426</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1">
-        <v>41030</v>
+        <v>41671</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="G12" s="1">
-        <v>41030</v>
+        <v>41671</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="K12" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="G13" s="1">
-        <v>43952</v>
+        <v>41671</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="K13" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>131</v>
+      <c r="A14" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1">
-        <v>38718</v>
+        <v>39356</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1">
+        <v>39387</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="F16" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="G16" s="1">
-        <v>38384</v>
+        <v>39022</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="K16" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>174</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="G17" s="1">
-        <v>43191</v>
+        <v>43831</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" t="s">
         <v>318</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="G18" s="1">
-        <v>36192</v>
+        <v>36831</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="K18" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="G19" s="1">
+        <v>41548</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" t="s">
+        <v>362</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="1">
         <v>40909</v>
       </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="K19" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="1">
-        <v>40269</v>
-      </c>
       <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43922</v>
+      </c>
+      <c r="H21" t="s">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="1">
-        <v>43282</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>218</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1">
-        <v>41306</v>
+        <v>41944</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="F23" t="s">
-        <v>311</v>
+        <v>97</v>
       </c>
       <c r="G23" s="1">
-        <v>40422</v>
+        <v>41061</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" t="s">
-        <v>314</v>
-      </c>
       <c r="F24" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1">
-        <v>44075</v>
+        <v>40330</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>55</v>
+      <c r="A25" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="G25" s="1">
-        <v>39814</v>
+        <v>40452</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="G26" s="1"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1">
-        <v>35096</v>
+        <v>35735</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="G28" s="1">
-        <v>39965</v>
+        <v>40603</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s">
-        <v>419</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>375</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="G29" s="1">
-        <v>35827</v>
+        <v>36465</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="K29" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1">
-        <v>35400</v>
+        <v>36039</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>351</v>
+      <c r="A31" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>375</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="G31" s="1">
-        <v>38139</v>
+        <v>38777</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>420</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="1">
+        <v>38169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K32" t="s">
+        <v>370</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="1">
+        <v>40118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40664</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K34" t="s">
+        <v>365</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F35" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" s="1">
+        <v>37865</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K35" t="s">
+        <v>360</v>
+      </c>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G36" s="1">
+        <v>36192</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K36" t="s">
         <v>83</v>
-      </c>
-      <c r="G32" s="1">
-        <v>37530</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K32" t="s">
-        <v>305</v>
-      </c>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="1">
-        <v>35551</v>
-      </c>
-      <c r="H36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K36" t="s">
-        <v>71</v>
       </c>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="G37" s="1">
-        <v>40179</v>
+        <v>40817</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="K37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="F38" t="s">
+        <v>374</v>
+      </c>
+      <c r="G38" s="1">
+        <v>42979</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K38" t="s">
         <v>82</v>
-      </c>
-      <c r="G38" s="1">
-        <v>42339</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K38" t="s">
-        <v>70</v>
       </c>
       <c r="L38"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="E39" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G39" s="1">
-        <v>39417</v>
+        <v>40057</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="G40" s="1">
-        <v>37226</v>
+        <v>37865</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="K40" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="G41" s="1">
-        <v>38961</v>
+        <v>39600</v>
       </c>
       <c r="H41" t="s">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="K41" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="1">
+        <v>42370</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="K42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
+        <v>373</v>
+      </c>
+      <c r="F43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="1">
+        <v>39783</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="K43" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="1">
-        <v>41730</v>
-      </c>
-      <c r="H42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="K42" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" t="s">
-        <v>308</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>373</v>
+      </c>
+      <c r="F44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="1">
+        <v>37377</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K44" t="s">
         <v>82</v>
-      </c>
-      <c r="G43" s="1">
-        <v>39142</v>
-      </c>
-      <c r="H43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K43" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" t="s">
-        <v>312</v>
-      </c>
-      <c r="F44" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" s="1">
-        <v>36739</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="K44" t="s">
-        <v>70</v>
       </c>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="G45" s="1">
-        <v>42125</v>
+        <v>42767</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="K45" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>379</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="G46" s="1">
-        <v>39052</v>
+        <v>39692</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="1">
+        <v>41030</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K47" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="1">
-        <v>40391</v>
-      </c>
-      <c r="H47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K47" t="s">
-        <v>70</v>
-      </c>
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>256</v>
+      <c r="A48" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="G48" s="1">
-        <v>40909</v>
+        <v>41548</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>379</v>
+      </c>
+      <c r="F49" t="s">
+        <v>378</v>
+      </c>
+      <c r="G49" s="1">
+        <v>42095</v>
+      </c>
+      <c r="H49" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>308</v>
-      </c>
-      <c r="F49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="1">
-        <v>41456</v>
-      </c>
-      <c r="H49" t="s">
-        <v>44</v>
-      </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L49"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="F50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="1">
+        <v>42887</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K50" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="1">
-        <v>42248</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K50" t="s">
-        <v>71</v>
-      </c>
       <c r="L50"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>215</v>
+      <c r="A51" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G51" s="1">
-        <v>44013</v>
+        <v>40634</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L51"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="G52" s="1">
-        <v>39356</v>
+        <v>39995</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="K52" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="L52"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="G53" s="1">
-        <v>39661</v>
+        <v>40299</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="G54" s="1">
-        <v>42401</v>
+        <v>43040</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>377</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="G55" s="1">
-        <v>40330</v>
+        <v>40969</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
+        <v>88</v>
+      </c>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="1">
+        <v>38869</v>
+      </c>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="G57" s="1"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="1">
+        <v>42156</v>
+      </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L56"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L57"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>82</v>
+      </c>
       <c r="L58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" s="1">
+        <v>40026</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K59" t="s">
+        <v>82</v>
+      </c>
       <c r="L59"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>274</v>
+      <c r="A60" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F60" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="G60" s="1">
-        <v>41671</v>
+        <v>42309</v>
       </c>
       <c r="H60" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="K60" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" t="s">
+        <v>376</v>
+      </c>
+      <c r="G61" s="1">
+        <v>38504</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C61" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" t="s">
-        <v>310</v>
-      </c>
-      <c r="F61" t="s">
-        <v>309</v>
-      </c>
-      <c r="G61" s="1">
-        <v>37865</v>
-      </c>
-      <c r="H61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
+        <v>88</v>
+      </c>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" s="1">
+        <v>40544</v>
+      </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K61" t="s">
-        <v>76</v>
-      </c>
-      <c r="L61"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" t="s">
-        <v>308</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="1">
+        <v>41487</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K63" t="s">
         <v>82</v>
-      </c>
-      <c r="G62" s="1">
-        <v>39904</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K62" t="s">
-        <v>70</v>
-      </c>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" t="s">
-        <v>308</v>
-      </c>
-      <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="1">
-        <v>40848</v>
-      </c>
-      <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K63" t="s">
-        <v>70</v>
       </c>
       <c r="L63"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="F64" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="G64" s="1">
-        <v>42644</v>
+        <v>43282</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="K64" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>116</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>349</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>97</v>
       </c>
       <c r="G65" s="1">
-        <v>35827</v>
+        <v>36465</v>
       </c>
       <c r="H65" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="K65" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L65"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>198</v>
+      <c r="A66" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="1">
+        <v>40057</v>
+      </c>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="1">
-        <v>39417</v>
-      </c>
-      <c r="H66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K66" t="s">
-        <v>70</v>
-      </c>
       <c r="L66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>370</v>
+      <c r="A67" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="F67" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" s="1">
+        <v>42795</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K67" t="s">
         <v>82</v>
       </c>
-      <c r="G67" s="1">
-        <v>42156</v>
-      </c>
-      <c r="H67" t="s">
-        <v>39</v>
-      </c>
-      <c r="I67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K67" t="s">
-        <v>70</v>
-      </c>
       <c r="L67"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>369</v>
+      <c r="A68" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="F68" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="G68" s="1">
-        <v>40787</v>
+        <v>41426</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="K68" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L68"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="F69" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G69" s="1">
-        <v>39873</v>
+        <v>40513</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="K69" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L69"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>366</v>
+      <c r="A70" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="G70" s="1">
-        <v>39417</v>
+        <v>40057</v>
       </c>
       <c r="H70" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="K70" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L70"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>200</v>
+      <c r="A71" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="G71" s="1">
-        <v>39448</v>
+        <v>40087</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L71"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G72" s="1">
-        <v>36951</v>
+        <v>37591</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="K72" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="L72"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="G73" s="1">
-        <v>36130</v>
+        <v>36770</v>
       </c>
       <c r="H73" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="K73" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G74" s="1">
-        <v>41061</v>
+        <v>41699</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="K74" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="F75" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" s="1">
+        <v>40299</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" t="s">
         <v>82</v>
-      </c>
-      <c r="G75" s="1">
-        <v>39661</v>
-      </c>
-      <c r="H75" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K75" t="s">
-        <v>70</v>
       </c>
       <c r="L75"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G76" s="1">
-        <v>44044</v>
+        <v>40664</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="K76" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="L76"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B77" t="s">
-        <v>257</v>
-      </c>
-      <c r="C77" t="s">
-        <v>232</v>
-      </c>
-      <c r="D77" t="s">
-        <v>223</v>
-      </c>
-      <c r="E77" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77" t="s">
-        <v>313</v>
-      </c>
-      <c r="G77" s="1">
-        <v>40027</v>
-      </c>
-      <c r="H77" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K77" t="s">
-        <v>70</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="G77" s="1"/>
       <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78" s="1">
+        <v>42705</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="F79" t="s">
+        <v>376</v>
+      </c>
+      <c r="G79" s="1">
+        <v>42186</v>
+      </c>
+      <c r="H79" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K79" t="s">
         <v>82</v>
-      </c>
-      <c r="G79" s="1">
-        <v>41548</v>
-      </c>
-      <c r="H79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K79" t="s">
-        <v>70</v>
       </c>
       <c r="L79"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" s="1">
+        <v>43647</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>53</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K80" t="s">
         <v>82</v>
-      </c>
-      <c r="G80" s="1">
-        <v>43009</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="K80" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="F81" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="G81" s="1">
-        <v>37500</v>
+        <v>38139</v>
       </c>
       <c r="H81" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="K81" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="F82" t="s">
+        <v>376</v>
+      </c>
+      <c r="G82" s="1">
+        <v>37165</v>
+      </c>
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K82" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="1">
-        <v>36526</v>
-      </c>
-      <c r="H82" t="s">
-        <v>39</v>
-      </c>
-      <c r="I82" t="s">
-        <v>46</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K82" t="s">
-        <v>70</v>
-      </c>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="A83" s="4"/>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="F83" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="G83" s="1">
-        <v>36861</v>
+        <v>37500</v>
       </c>
       <c r="H83" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="K83" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>226</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>377</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="G84" s="1">
-        <v>41730</v>
+        <v>42370</v>
       </c>
       <c r="H84" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="K84" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" t="s">
+        <v>379</v>
+      </c>
+      <c r="F85" t="s">
+        <v>378</v>
+      </c>
+      <c r="G85" s="1">
+        <v>38687</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K85" t="s">
+        <v>82</v>
+      </c>
       <c r="L85"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="G86" s="1">
-        <v>42644</v>
+        <v>43282</v>
       </c>
       <c r="H86" t="s">
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="K86" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L86"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="G87" s="1">
-        <v>43221</v>
+        <v>43862</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="K87" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="L87"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="F88" t="s">
+        <v>378</v>
+      </c>
+      <c r="G88" s="1">
+        <v>41426</v>
+      </c>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K88" t="s">
         <v>82</v>
       </c>
-      <c r="G88" s="1">
-        <v>40787</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" t="s">
+        <v>379</v>
+      </c>
+      <c r="F89" t="s">
+        <v>378</v>
+      </c>
+      <c r="G89" s="1">
+        <v>38838</v>
+      </c>
+      <c r="H89" t="s">
         <v>8</v>
       </c>
-      <c r="I88" t="s">
-        <v>46</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K88" t="s">
-        <v>70</v>
-      </c>
-      <c r="L88"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B89" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" t="s">
-        <v>258</v>
-      </c>
-      <c r="E89" t="s">
-        <v>314</v>
-      </c>
-      <c r="F89" t="s">
-        <v>313</v>
-      </c>
-      <c r="G89" s="1">
-        <v>38200</v>
-      </c>
-      <c r="H89" t="s">
-        <v>10</v>
-      </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="G90" s="1">
-        <v>36312</v>
+        <v>36951</v>
       </c>
       <c r="H90" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="K90" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="G91" s="1">
-        <v>37895</v>
+        <v>38534</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="K91" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>212</v>
+      <c r="A92" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="G92" s="1">
-        <v>44105</v>
+        <v>38534</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="K92" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>286</v>
+      <c r="A93" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="G93" s="1">
-        <v>42278</v>
+        <v>42917</v>
       </c>
       <c r="H93" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="K93" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
         <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="G94" s="1">
-        <v>41214</v>
+        <v>41852</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="K94" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>377</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="G95" s="1">
-        <v>39661</v>
+        <v>40299</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K95" t="s">
+        <v>82</v>
+      </c>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" t="s">
+        <v>379</v>
+      </c>
+      <c r="F96" t="s">
+        <v>378</v>
+      </c>
+      <c r="G96" s="1">
+        <v>39295</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K96" t="s">
+        <v>82</v>
+      </c>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" t="s">
+        <v>379</v>
+      </c>
+      <c r="F97" t="s">
+        <v>378</v>
+      </c>
+      <c r="G97" s="1">
+        <v>39203</v>
+      </c>
+      <c r="H97" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K97" t="s">
+        <v>82</v>
+      </c>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="G98" s="1"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44317</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K99" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" t="s">
+        <v>379</v>
+      </c>
+      <c r="F100" t="s">
+        <v>378</v>
+      </c>
+      <c r="G100" s="1">
+        <v>41548</v>
+      </c>
+      <c r="H100" t="s">
+        <v>45</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K100" t="s">
+        <v>87</v>
+      </c>
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K95" t="s">
-        <v>70</v>
-      </c>
-      <c r="L95"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L96"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L97"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L98"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L100"/>
+      <c r="F101" t="s">
+        <v>98</v>
+      </c>
+      <c r="G101" s="1">
+        <v>44378</v>
+      </c>
+      <c r="H101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K101" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>53</v>
+      <c r="A102" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="F102" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="G102" s="1">
-        <v>43070</v>
+        <v>43709</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="K102" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>395</v>
+      <c r="A103" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="G103" s="1">
-        <v>43952</v>
+        <v>43862</v>
       </c>
       <c r="H103" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="K103" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G104" s="1">
-        <v>41091</v>
+        <v>41730</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="K104" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="L104"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B105" t="s">
-        <v>257</v>
-      </c>
-      <c r="C105" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" t="s">
-        <v>308</v>
-      </c>
-      <c r="F105" t="s">
-        <v>82</v>
-      </c>
-      <c r="G105" s="1">
-        <v>44014</v>
-      </c>
-      <c r="H105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I105" t="s">
-        <v>46</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K105" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B106" t="s">
-        <v>135</v>
-      </c>
-      <c r="C106" t="s">
-        <v>418</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" t="s">
-        <v>83</v>
-      </c>
-      <c r="G106" s="1">
-        <v>41093</v>
-      </c>
-      <c r="H106" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" t="s">
-        <v>19</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K106" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B127" t="s">
-        <v>199</v>
-      </c>
-      <c r="C127" t="s">
-        <v>31</v>
-      </c>
-      <c r="D127" t="s">
-        <v>282</v>
-      </c>
-      <c r="E127" t="s">
-        <v>308</v>
-      </c>
-      <c r="F127" t="s">
-        <v>82</v>
-      </c>
-      <c r="G127" s="1">
-        <v>39142</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" t="s">
-        <v>19</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K127" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" t="s">
-        <v>158</v>
-      </c>
-      <c r="C128" t="s">
-        <v>142</v>
-      </c>
-      <c r="D128" t="s">
-        <v>267</v>
-      </c>
-      <c r="E128" t="s">
-        <v>314</v>
-      </c>
-      <c r="F128" t="s">
-        <v>313</v>
-      </c>
-      <c r="G128" s="1">
-        <v>36739</v>
-      </c>
-      <c r="H128" t="s">
-        <v>45</v>
-      </c>
-      <c r="I128" t="s">
-        <v>46</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K128" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B129" t="s">
-        <v>167</v>
-      </c>
-      <c r="C129" t="s">
-        <v>246</v>
-      </c>
-      <c r="D129" t="s">
-        <v>270</v>
-      </c>
-      <c r="E129" t="s">
-        <v>310</v>
-      </c>
-      <c r="F129" t="s">
-        <v>309</v>
-      </c>
-      <c r="G129" s="1">
-        <v>42125</v>
-      </c>
-      <c r="H129" t="s">
-        <v>39</v>
-      </c>
-      <c r="I129" t="s">
-        <v>19</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="K129" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B130" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D130" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" t="s">
-        <v>308</v>
-      </c>
-      <c r="F130" t="s">
-        <v>82</v>
-      </c>
-      <c r="G130" s="1">
-        <v>39052</v>
-      </c>
-      <c r="H130" t="s">
-        <v>43</v>
-      </c>
-      <c r="I130" t="s">
-        <v>19</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K130" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" t="s">
-        <v>275</v>
-      </c>
-      <c r="C131" t="s">
-        <v>217</v>
-      </c>
-      <c r="D131" t="s">
-        <v>273</v>
-      </c>
-      <c r="E131" t="s">
-        <v>310</v>
-      </c>
-      <c r="F131" t="s">
-        <v>309</v>
-      </c>
-      <c r="G131" s="1">
-        <v>40391</v>
-      </c>
-      <c r="H131" t="s">
-        <v>41</v>
-      </c>
-      <c r="I131" t="s">
-        <v>19</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K131" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B132" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" t="s">
-        <v>232</v>
-      </c>
-      <c r="D132" t="s">
-        <v>276</v>
-      </c>
-      <c r="E132" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" s="1">
-        <v>40909</v>
-      </c>
-      <c r="H132" t="s">
-        <v>9</v>
-      </c>
-      <c r="I132" t="s">
-        <v>46</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K132" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B133" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" t="s">
-        <v>83</v>
-      </c>
-      <c r="G133" s="1">
-        <v>41456</v>
-      </c>
-      <c r="H133" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" t="s">
-        <v>19</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="K133" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134" t="s">
-        <v>148</v>
-      </c>
-      <c r="C134" t="s">
-        <v>118</v>
-      </c>
-      <c r="D134" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" t="s">
-        <v>312</v>
-      </c>
-      <c r="F134" t="s">
-        <v>311</v>
-      </c>
-      <c r="G134" s="1">
-        <v>42248</v>
-      </c>
-      <c r="H134" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" t="s">
-        <v>46</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K134" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>113</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" t="s">
-        <v>149</v>
-      </c>
-      <c r="E135" t="s">
-        <v>314</v>
-      </c>
-      <c r="F135" t="s">
-        <v>313</v>
-      </c>
-      <c r="G135" s="1">
-        <v>39995</v>
-      </c>
-      <c r="H135" t="s">
-        <v>8</v>
-      </c>
-      <c r="I135" t="s">
-        <v>19</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K135" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B136" t="s">
-        <v>196</v>
-      </c>
-      <c r="C136" t="s">
-        <v>206</v>
-      </c>
-      <c r="D136" t="s">
-        <v>114</v>
-      </c>
-      <c r="E136" t="s">
-        <v>310</v>
-      </c>
-      <c r="F136" t="s">
-        <v>309</v>
-      </c>
-      <c r="G136" s="1">
-        <v>39356</v>
-      </c>
-      <c r="H136" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" t="s">
-        <v>19</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K136" t="s">
-        <v>295</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>